--- a/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/samples/general_eln_settings_update.xlsx
+++ b/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/samples/general_eln_settings_update.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapukhliakova/git/openbis/openbis_standard_technologies/sourceTest/java/ch/ethz/sis/openbis/systemtest/plugin/excelimport/test_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF799697-EDCE-0C42-8990-6187F2CD44F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE511E22-5D97-1240-9786-3AB3448AA893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2040" windowWidth="27640" windowHeight="16940" xr2:uid="{2B43D852-C8D1-EE49-967E-9FF3E3EA802A}"/>
+    <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="19120" xr2:uid="{2B43D852-C8D1-EE49-967E-9FF3E3EA802A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>SAMPLE</t>
   </si>
@@ -55,6 +55,45 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ELN Settings Updated</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>DEFAULT_PROJECT</t>
+  </si>
+  <si>
+    <t>EXPERIMENT</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>DEFAULT_EXPERIMENT</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>/ELN_SETTINGS/DEFAULT_PROJECT</t>
+  </si>
+  <si>
+    <t>Default Project Updated</t>
+  </si>
+  <si>
+    <t>Default Experiment Updated</t>
   </si>
 </sst>
 </file>
@@ -446,51 +485,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138B54B5-3BF8-0D42-A5D4-7E41A9E763E6}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="3" t="s">
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
     </row>
